--- a/pred_ohlcv/54_21/2019-10-29 MITH ohlcv-Jayone.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MITH ohlcv-Jayone.xlsx
@@ -1978,7 +1978,7 @@
         <v>-382991.2256999999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-382791.2256999999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-589131.0437999999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-432638.8128999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-432638.8128999999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-432638.8128999999</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-432638.8128999999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-177478.5713999999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-177531.7213999999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-229710.5882999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-99756.91079999988</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-99756.91079999988</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5002.255800000115</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>53677.38200000011</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-102056.7338999999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-446269.8327999999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-507587.5974999999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-363265.8327999999</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-363265.8327999999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-316499.8146999999</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-431878.6789999999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-431878.6789999999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-431878.6789999999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>99736.8431</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>99736.8431</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-125688.6273</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>64782.37270000001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>941153.6999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>954080.6679</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>876076.4575</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>876076.4575</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>876076.4575</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>876086.4575</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>731815.2917000001</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>731827.2917000001</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>731827.2917000001</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 MITH ohlcv-Jayone.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MITH ohlcv-Jayone.xlsx
@@ -2082,7 +2082,7 @@
         <v>-589131.0437999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-432638.8128999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-177478.5713999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-177531.7213999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-99756.91079999988</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-99756.91079999988</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5002.255800000115</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>53677.38200000011</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-102056.7338999999</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-374195.3883999999</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-507587.5974999999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-333724.5256999999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-431878.6789999999</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-439460.682</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-388906.105</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-388906.105</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-388906.105</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-356394.0425</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>99736.8431</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>99736.8431</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-125688.6273</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>64782.37270000001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>679989.7824</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>941153.6999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>941153.6999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>954080.6679</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>876076.4575</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>876076.4575</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>876076.4575</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>876086.4575</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>731815.2917000001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>731827.2917000001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>731827.2917000001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
